--- a/data/n2v/tables/model-1200-1325-20230828-34.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-34.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
